--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,21 +56,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -448,105 +448,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>44.8700</t>
+          <t>46.2300</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46.2300</t>
+          <t>46.5400</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46.5400</t>
+          <t>45.0100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45.0100</t>
+          <t>44.8600</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44.8600</t>
+          <t>43.7700</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.7700</t>
+          <t>43.1400</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>43.1400</t>
+          <t>42.9600</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>42.9600</t>
+          <t>42.4200</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>42.4200</t>
+          <t>43.1800</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43.1800</t>
+          <t>42.2300</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -448,101 +448,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45686</v>
+        <v>45708</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46.2300</t>
+          <t>43.6600</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45687</v>
+        <v>45709</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46.5400</t>
+          <t>42.0200</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45688</v>
+        <v>45712</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>45.0100</t>
+          <t>41.6400</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45691</v>
+        <v>45713</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>44.8600</t>
+          <t>39.0400</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45692</v>
+        <v>45714</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43.7700</t>
+          <t>37.3200</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45693</v>
+        <v>45715</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.1400</t>
+          <t>36.9300</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42.9600</t>
+          <t>37.3300</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45695</v>
+        <v>45719</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>42.4200</t>
+          <t>38.1000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45698</v>
+        <v>45720</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43.1800</t>
+          <t>38.5000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45699</v>
+        <v>45721</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42.2300</t>
+          <t>40.0800</t>
         </is>
       </c>
     </row>
